--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_4_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_4_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.96656090470976, 50.059982912076656]</t>
+          <t>[49.966509176771694, 50.06003464001472]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.95349147587424, 50.01963690992677]</t>
+          <t>[49.95350288881988, 50.01962549698113]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.84751096126876, 49.995623059102876]</t>
+          <t>[49.84682355529793, 49.996310465073705]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.95343499797974, 50.05433972202694]</t>
+          <t>[49.95343379039122, 50.054340929615456]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_4_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_4_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.966509176771694, 50.06003464001472]</t>
+          <t>[49.96655415363997, 50.059989663146446]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.95350288881988, 50.01962549698113]</t>
+          <t>[49.953415109185904, 50.0197132766151]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.84682355529793, 49.996310465073705]</t>
+          <t>[49.847856145273006, 49.99527787509863]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.95343379039122, 50.054340929615456]</t>
+          <t>[49.953505980448774, 50.054268739557905]</t>
         </is>
       </c>
       <c r="U3" t="n">
